--- a/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-08-10.xlsx
+++ b/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-08-10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,6 +583,195 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>711SPRNKLEPK</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sprinkles - Pink</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>711SPRNKLEOR</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sprinkles - Orange</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3639225768</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Compound - Raspberry</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>57.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10201311</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Spice - Italian Seasoning</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>175.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>245663CB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Box Cake - 6x6x3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>245885CB</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Box Cake - 8x8x5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>409ML90266</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Choc Curls - Dark</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>127.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>511.84</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-08-10.xlsx
+++ b/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-08-10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,6 +772,222 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>63204854</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Degreaser - for Panini Press (Dawn)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>433SLINERBL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sheet Pan Liner - Silicone Coated</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>307.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2458GCC</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cake Circle - 8" (Gold)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>39.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>245663WB</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Box Cake - 6x6x3 Window</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>126.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>150300865</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bag Paper - 6x13.5 Window</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>319.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>433qlinerbl</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sheet Pan Liner - White</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>175.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>130TONG10BLK</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Black Plastic Tongs - 10.5"</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3463318BK</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Black Plastic Spreader 7.51"</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>41.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
